--- a/DNLI.xlsx
+++ b/DNLI.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE7F79C-E24A-EE4C-B7C7-6DD657340748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74C655-B0EC-4DFF-8F55-9C3327D16970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20180" yWindow="1940" windowWidth="19260" windowHeight="16080" xr2:uid="{AD0EA94E-C078-9049-B35D-03F39FBC1664}"/>
+    <workbookView xWindow="-33390" yWindow="1905" windowWidth="28770" windowHeight="15450" xr2:uid="{AD0EA94E-C078-9049-B35D-03F39FBC1664}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Price</t>
   </si>
@@ -56,18 +56,12 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q123</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>CEO: Ryan Watts</t>
   </si>
   <si>
-    <t>DNL310</t>
-  </si>
-  <si>
     <t>Indication</t>
   </si>
   <si>
@@ -135,19 +129,55 @@
   </si>
   <si>
     <t>Economics</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Filing</t>
+  </si>
+  <si>
+    <t>DNL310 (tividenofusp alfa)</t>
+  </si>
+  <si>
+    <t>Multiple Sclerosis</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>LRRK2</t>
+  </si>
+  <si>
+    <t>BIIB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -262,29 +292,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{D0D20BAE-337A-4751-8860-8498909DF33C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,9 +332,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -337,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -443,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -585,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,205 +628,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691F9766-64C5-8B4D-9607-C42434172F4A}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.875" style="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>30.62</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+        <v>25.59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>136.888912</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+        <f>143.165264+26.046065</f>
+        <v>169.21132900000001</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="3">
         <f>K2*K3</f>
-        <v>4191.5384854399999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+        <v>4330.1179091100003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5"/>
       <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <f>68.131+1220.322</f>
-        <v>1288.453</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B6" s="5" t="s">
+        <f>74.679+821.365+450.994</f>
+        <v>1347.038</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="5"/>
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B7" s="5" t="s">
+      <c r="L6" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
       <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="3">
         <f>K4-K5+K6</f>
-        <v>2903.08548544</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+        <v>2983.0799091100002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="J9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="F10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2704.9920000000002</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1317.039</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DNLI.xlsx
+++ b/DNLI.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E74C655-B0EC-4DFF-8F55-9C3327D16970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA87285-B456-4315-B9F8-B2729220EB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33390" yWindow="1905" windowWidth="28770" windowHeight="15450" xr2:uid="{AD0EA94E-C078-9049-B35D-03F39FBC1664}"/>
+    <workbookView xWindow="38450" yWindow="2510" windowWidth="17780" windowHeight="16580" xr2:uid="{AD0EA94E-C078-9049-B35D-03F39FBC1664}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="DNL310" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>Price</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Phase</t>
   </si>
   <si>
-    <t>Filing</t>
-  </si>
-  <si>
     <t>DNL310 (tividenofusp alfa)</t>
   </si>
   <si>
@@ -159,13 +157,58 @@
   </si>
   <si>
     <t>BIIB</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Salt Like City</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>DNL310, ETV:IDS</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>tividenofusp alfa</t>
+  </si>
+  <si>
+    <t>MPS II (Hunter Syndrome)</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Phase I/II n=47</t>
+  </si>
+  <si>
+    <t>Phase II/III "COMPASS"</t>
+  </si>
+  <si>
+    <t>DNL921</t>
+  </si>
+  <si>
+    <t>ATV:Abeta</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +225,29 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -289,10 +355,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -312,8 +379,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,25 +699,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691F9766-64C5-8B4D-9607-C42434172F4A}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="9" width="10.875" style="1"/>
+    <col min="1" max="1" width="4.08203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="1"/>
     <col min="10" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="11" max="11" width="9.08203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.58203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
@@ -668,12 +739,12 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>25.59</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -682,21 +753,20 @@
         <v>13</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3" s="5"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f>143.165264+26.046065</f>
-        <v>169.21132900000001</v>
+        <v>171.22202999999999</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -712,10 +782,10 @@
       </c>
       <c r="K4" s="3">
         <f>K2*K3</f>
-        <v>4330.1179091100003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>2421.0795042</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -727,14 +797,14 @@
         <v>3</v>
       </c>
       <c r="K5" s="3">
-        <f>74.679+821.365+450.994</f>
-        <v>1347.038</v>
+        <f>56.947+760.979+235.844</f>
+        <v>1053.77</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -752,18 +822,18 @@
         <v>0</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="H7" s="5"/>
       <c r="J7" s="1" t="s">
@@ -771,65 +841,78 @@
       </c>
       <c r="K7" s="3">
         <f>K4-K5+K6</f>
-        <v>2983.0799091100002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1367.3095042</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="H9" s="5"/>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="8"/>
       <c r="J11" s="13" t="s">
         <v>32</v>
       </c>
@@ -840,7 +923,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="J12" s="13" t="s">
         <v>33</v>
       </c>
@@ -851,7 +934,80 @@
         <v>31</v>
       </c>
     </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="'DNL310'!A1" display="DNL310 (tividenofusp alfa)" xr:uid="{20BCE5A1-4426-422D-A026-AF6E48B7FEF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605D862A-362E-4D4B-A410-F88DE9D2C5CA}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.08203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C9" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D32650EF-10BE-4E3F-B405-A4C873023AB1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>